--- a/loading_statistics.xlsx
+++ b/loading_statistics.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ba23d5b7de37717/MADS/IST737/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{774742A3-1C74-4381-B0D9-686EFEEF56A8}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AE9D020-673B-42D7-8E6A-956EF339140E}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="country" sheetId="1" r:id="rId1"/>
+    <sheet name="region" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>code</t>
   </si>
@@ -67,6 +68,18 @@
   </si>
   <si>
     <t>activities</t>
+  </si>
+  <si>
+    <t>hlth_rs_physreg</t>
+  </si>
+  <si>
+    <t>physicians</t>
+  </si>
+  <si>
+    <t>tran_r_acci</t>
+  </si>
+  <si>
+    <t>road_accidents</t>
   </si>
 </sst>
 </file>
@@ -119,6 +132,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,4 +468,43 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578C99A1-3040-4833-B036-6E74020820B1}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/loading_statistics.xlsx
+++ b/loading_statistics.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ba23d5b7de37717/MADS/IST737/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AE9D020-673B-42D7-8E6A-956EF339140E}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FFA498B-ABF6-4A2A-B4BF-814EA1600BD1}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="country" sheetId="1" r:id="rId1"/>
     <sheet name="region" sheetId="2" r:id="rId2"/>
+    <sheet name="city" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>code</t>
   </si>
@@ -80,6 +81,12 @@
   </si>
   <si>
     <t>road_accidents</t>
+  </si>
+  <si>
+    <t>urb_clivcon</t>
+  </si>
+  <si>
+    <t>living_cond</t>
   </si>
 </sst>
 </file>
@@ -474,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578C99A1-3040-4833-B036-6E74020820B1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -507,4 +514,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B36D7E-B50C-41E7-8550-65162B245856}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/loading_statistics.xlsx
+++ b/loading_statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ba23d5b7de37717/MADS/IST737/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FFA498B-ABF6-4A2A-B4BF-814EA1600BD1}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFA36BBF-12DB-4B2A-BB80-8226658F1856}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="country" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>code</t>
   </si>
@@ -68,9 +68,6 @@
     <t>ilc_scp01</t>
   </si>
   <si>
-    <t>activities</t>
-  </si>
-  <si>
     <t>hlth_rs_physreg</t>
   </si>
   <si>
@@ -87,6 +84,117 @@
   </si>
   <si>
     <t>living_cond</t>
+  </si>
+  <si>
+    <t>Partcptnculspo</t>
+  </si>
+  <si>
+    <t>edat_lfse_03</t>
+  </si>
+  <si>
+    <t>Populeduatt</t>
+  </si>
+  <si>
+    <t>edat_lfse_14</t>
+  </si>
+  <si>
+    <t>Earlyleaversedutrain</t>
+  </si>
+  <si>
+    <t>trng_lfs_02</t>
+  </si>
+  <si>
+    <t>Partcptnedutrain</t>
+  </si>
+  <si>
+    <t>ilc_scp12</t>
+  </si>
+  <si>
+    <t>Freqcontacts</t>
+  </si>
+  <si>
+    <t>ilc_mdes05</t>
+  </si>
+  <si>
+    <t>mortgrentutilbills</t>
+  </si>
+  <si>
+    <t>ilc_lvhl30</t>
+  </si>
+  <si>
+    <t>Labourtransitions</t>
+  </si>
+  <si>
+    <t>ilc_mddw03</t>
+  </si>
+  <si>
+    <t>Crimviolvandalism</t>
+  </si>
+  <si>
+    <t>crim_off_cat</t>
+  </si>
+  <si>
+    <t>Policrecordoffences</t>
+  </si>
+  <si>
+    <t>earn_gr_gpgr2</t>
+  </si>
+  <si>
+    <t>ilc_mddw01</t>
+  </si>
+  <si>
+    <t>ilc_mddw02</t>
+  </si>
+  <si>
+    <t>ilc_pw01</t>
+  </si>
+  <si>
+    <t>ilc_pw03</t>
+  </si>
+  <si>
+    <t>ilc_pw05</t>
+  </si>
+  <si>
+    <t>ilc_pw08</t>
+  </si>
+  <si>
+    <t>ilc_scp19</t>
+  </si>
+  <si>
+    <t>lfst_r_eredcobu</t>
+  </si>
+  <si>
+    <t>tesem060</t>
+  </si>
+  <si>
+    <t>gov_gender_pay_gap</t>
+  </si>
+  <si>
+    <t>inv_noise</t>
+  </si>
+  <si>
+    <t>inv_pollution</t>
+  </si>
+  <si>
+    <t>env_satisf_rating</t>
+  </si>
+  <si>
+    <t>gov_trust</t>
+  </si>
+  <si>
+    <t>env_perc_satisf_rating</t>
+  </si>
+  <si>
+    <t>life_freq_happy</t>
+  </si>
+  <si>
+    <t>gov_partpn</t>
+  </si>
+  <si>
+    <t>gov_emp</t>
+  </si>
+  <si>
+    <t>gov_gender_emp</t>
   </si>
 </sst>
 </file>
@@ -102,15 +210,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,12 +232,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,51 +557,195 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -497,18 +773,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -520,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B36D7E-B50C-41E7-8550-65162B245856}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,10 +812,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/loading_statistics.xlsx
+++ b/loading_statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ba23d5b7de37717/MADS/IST737/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFA36BBF-12DB-4B2A-BB80-8226658F1856}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{445D807E-6F51-48D3-9BCB-0D179DFCC99D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="country" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>code</t>
   </si>
@@ -35,179 +35,59 @@
     <t>alias</t>
   </si>
   <si>
-    <t>ilc_lvhl11</t>
-  </si>
-  <si>
-    <t>underemployment</t>
-  </si>
-  <si>
-    <t>hlth_silc_10</t>
-  </si>
-  <si>
-    <t>self_health</t>
-  </si>
-  <si>
-    <t>hlth_ehis_pe2e</t>
-  </si>
-  <si>
-    <t>time_health_enhancing</t>
-  </si>
-  <si>
-    <t>edat_aes_l21</t>
-  </si>
-  <si>
-    <t>foreing_lang</t>
-  </si>
-  <si>
-    <t>ilc_scp10</t>
-  </si>
-  <si>
-    <t>get_together</t>
-  </si>
-  <si>
-    <t>ilc_scp01</t>
-  </si>
-  <si>
-    <t>hlth_rs_physreg</t>
-  </si>
-  <si>
-    <t>physicians</t>
-  </si>
-  <si>
-    <t>tran_r_acci</t>
-  </si>
-  <si>
-    <t>road_accidents</t>
-  </si>
-  <si>
     <t>urb_clivcon</t>
   </si>
   <si>
     <t>living_cond</t>
   </si>
   <si>
-    <t>Partcptnculspo</t>
-  </si>
-  <si>
-    <t>edat_lfse_03</t>
-  </si>
-  <si>
-    <t>Populeduatt</t>
-  </si>
-  <si>
-    <t>edat_lfse_14</t>
-  </si>
-  <si>
-    <t>Earlyleaversedutrain</t>
-  </si>
-  <si>
-    <t>trng_lfs_02</t>
-  </si>
-  <si>
-    <t>Partcptnedutrain</t>
-  </si>
-  <si>
-    <t>ilc_scp12</t>
-  </si>
-  <si>
-    <t>Freqcontacts</t>
-  </si>
-  <si>
-    <t>ilc_mdes05</t>
-  </si>
-  <si>
-    <t>mortgrentutilbills</t>
-  </si>
-  <si>
-    <t>ilc_lvhl30</t>
-  </si>
-  <si>
-    <t>Labourtransitions</t>
-  </si>
-  <si>
-    <t>ilc_mddw03</t>
-  </si>
-  <si>
-    <t>Crimviolvandalism</t>
-  </si>
-  <si>
-    <t>crim_off_cat</t>
-  </si>
-  <si>
-    <t>Policrecordoffences</t>
-  </si>
-  <si>
-    <t>earn_gr_gpgr2</t>
-  </si>
-  <si>
-    <t>ilc_mddw01</t>
-  </si>
-  <si>
-    <t>ilc_mddw02</t>
-  </si>
-  <si>
-    <t>ilc_pw01</t>
-  </si>
-  <si>
-    <t>ilc_pw03</t>
-  </si>
-  <si>
-    <t>ilc_pw05</t>
-  </si>
-  <si>
-    <t>ilc_pw08</t>
-  </si>
-  <si>
-    <t>ilc_scp19</t>
-  </si>
-  <si>
-    <t>lfst_r_eredcobu</t>
-  </si>
-  <si>
-    <t>tesem060</t>
-  </si>
-  <si>
-    <t>gov_gender_pay_gap</t>
-  </si>
-  <si>
-    <t>inv_noise</t>
-  </si>
-  <si>
-    <t>inv_pollution</t>
-  </si>
-  <si>
-    <t>env_satisf_rating</t>
-  </si>
-  <si>
-    <t>gov_trust</t>
-  </si>
-  <si>
-    <t>env_perc_satisf_rating</t>
-  </si>
-  <si>
-    <t>life_freq_happy</t>
-  </si>
-  <si>
-    <t>gov_partpn</t>
-  </si>
-  <si>
-    <t>gov_emp</t>
-  </si>
-  <si>
-    <t>gov_gender_emp</t>
+    <t>lfso_14loq</t>
+  </si>
+  <si>
+    <t>over_qualification</t>
+  </si>
+  <si>
+    <t>hsw_pb1</t>
+  </si>
+  <si>
+    <t>work_health_problem</t>
+  </si>
+  <si>
+    <t>tgs00010</t>
+  </si>
+  <si>
+    <t>jvs_a_rate_r2</t>
+  </si>
+  <si>
+    <t>vacancy rate</t>
+  </si>
+  <si>
+    <t>lfst_r_lfu2gac</t>
+  </si>
+  <si>
+    <t>unemployment_rate</t>
+  </si>
+  <si>
+    <t>unemployment_country_of_birth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -254,8 +134,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,197 +438,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -757,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578C99A1-3040-4833-B036-6E74020820B1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,20 +525,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -812,10 +566,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
